--- a/test data/HRMData.xlsx
+++ b/test data/HRMData.xlsx
@@ -3,24 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nalab\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9252" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17220" windowHeight="2952"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario1" sheetId="1" r:id="rId1"/>
     <sheet name="Scenario2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:Q8"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
   <si>
     <t>UserName</t>
   </si>
@@ -83,6 +79,12 @@
   </si>
   <si>
     <t>user3</t>
+  </si>
+  <si>
+    <t>sindhu</t>
+  </si>
+  <si>
+    <t>chinnu</t>
   </si>
 </sst>
 </file>
@@ -425,7 +427,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -447,7 +451,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -455,7 +459,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -486,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
